--- a/Modules/Module 2/MGECR1.5/MGECR1.5.2.xlsx
+++ b/Modules/Module 2/MGECR1.5/MGECR1.5.2.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54855FE4-FAFE-4873-8368-34204357BD5A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="75" yWindow="4170" windowWidth="20580" windowHeight="3975"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BUG - CR" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="55">
   <si>
     <t>Title</t>
   </si>
@@ -134,12 +135,57 @@
   </si>
   <si>
     <t>Enter UserName: admin, Password: admin - Admin Operation</t>
+  </si>
+  <si>
+    <t>MainApp.java</t>
+  </si>
+  <si>
+    <t>SubCategoryController.java</t>
+  </si>
+  <si>
+    <t>SubCategory.java</t>
+  </si>
+  <si>
+    <t xml:space="preserve">switch - case 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">public void findAll(); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">public String toString(); </t>
+  </si>
+  <si>
+    <t>SubCategoryControler.java</t>
+  </si>
+  <si>
+    <t>SubCategroy.java</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modified. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">added public String toString(); </t>
+  </si>
+  <si>
+    <t>change method</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>add to string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I cleaned up the findAll method by adding a toString call to show all the categroy details. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formated the category details. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -526,9 +572,6 @@
   <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -602,11 +645,92 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -617,11 +741,11 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -659,86 +783,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -769,7 +815,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -807,7 +853,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="Mindtree_Logo (1).png"/>
+        <xdr:cNvPr id="3" name="Picture 2" descr="Mindtree_Logo (1).png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -845,7 +897,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Title 1"/>
+        <xdr:cNvPr id="5" name="Title 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noGrp="1"/>
         </xdr:cNvSpPr>
@@ -972,6 +1030,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1007,6 +1082,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1182,22 +1274,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:F15"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52:F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5" style="3" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" customWidth="1"/>
     <col min="3" max="3" width="30.85546875" customWidth="1"/>
     <col min="4" max="4" width="67" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" customWidth="1"/>
     <col min="6" max="6" width="24" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="4"/>
+    <col min="7" max="7" width="9.140625" style="3"/>
     <col min="10" max="10" width="9.140625" customWidth="1"/>
     <col min="13" max="16" width="9.140625" customWidth="1"/>
   </cols>
@@ -1240,67 +1332,67 @@
     </row>
     <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35" t="s">
+      <c r="C5" s="61"/>
+      <c r="D5" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="35"/>
-      <c r="F5" s="36"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="62"/>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="57" t="s">
+      <c r="C6" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="58"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="38"/>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="38"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="51"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="60"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="57"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="61" t="s">
+      <c r="C9" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="62"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="59"/>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1314,18 +1406,18 @@
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="36"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="62"/>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="63" t="s">
@@ -1338,52 +1430,52 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="10">
+      <c r="B13" s="9">
         <v>1</v>
       </c>
-      <c r="C13" s="59" t="s">
+      <c r="C13" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="60"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="57"/>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="10">
+      <c r="B14" s="9">
         <v>2</v>
       </c>
-      <c r="C14" s="37" t="s">
+      <c r="C14" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="38"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="51"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="10">
+      <c r="B15" s="9">
         <v>3</v>
       </c>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="38"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="51"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="B16" s="11">
+      <c r="B16" s="10">
         <v>4</v>
       </c>
-      <c r="C16" s="61"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="62"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="59"/>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1397,72 +1489,84 @@
     </row>
     <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="36"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="62"/>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="53" t="s">
+      <c r="D19" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="53"/>
-      <c r="F19" s="54"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="36"/>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="15">
+      <c r="B20" s="14">
         <v>1</v>
       </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="56"/>
+      <c r="C20" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="54"/>
+      <c r="F20" s="55"/>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="10">
+      <c r="B21" s="9">
         <v>2</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="38"/>
+      <c r="C21" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="50"/>
+      <c r="F21" s="51"/>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="10">
+      <c r="B22" s="9">
         <v>3</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="38"/>
+      <c r="C22" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="50"/>
+      <c r="F22" s="51"/>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
-      <c r="B23" s="11">
+      <c r="B23" s="10">
         <v>4</v>
       </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="33"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="53"/>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1476,39 +1580,47 @@
     </row>
     <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="53" t="s">
+      <c r="D25" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="53"/>
-      <c r="F25" s="54"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="36"/>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="18">
+      <c r="B26" s="17">
         <v>1</v>
       </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="58"/>
+      <c r="C26" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" s="37"/>
+      <c r="F26" s="38"/>
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
-      <c r="B27" s="11">
+      <c r="B27" s="10">
         <v>2</v>
       </c>
-      <c r="C27" s="17"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="33"/>
+      <c r="C27" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" s="52"/>
+      <c r="F27" s="53"/>
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1522,79 +1634,79 @@
     </row>
     <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C29" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="53" t="s">
+      <c r="D29" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="E29" s="53"/>
-      <c r="F29" s="54"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="36"/>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="18">
+      <c r="B30" s="17">
         <v>1</v>
       </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="58"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="38"/>
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="21">
+      <c r="B31" s="20">
         <v>2</v>
       </c>
-      <c r="C31" s="22"/>
-      <c r="D31" s="69"/>
-      <c r="E31" s="69"/>
-      <c r="F31" s="70"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="40"/>
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
-      <c r="B32" s="71"/>
-      <c r="C32" s="72"/>
-      <c r="D32" s="72"/>
-      <c r="E32" s="72"/>
-      <c r="F32" s="73"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="43"/>
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="74" t="s">
+      <c r="B33" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C33" s="76"/>
-      <c r="D33" s="76"/>
-      <c r="E33" s="76"/>
-      <c r="F33" s="77"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="47"/>
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
-      <c r="B34" s="75"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="52"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="49"/>
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
-      <c r="B35" s="65" t="s">
+      <c r="B35" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C35" s="66"/>
-      <c r="D35" s="67"/>
-      <c r="E35" s="67"/>
-      <c r="F35" s="68"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="34"/>
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1608,99 +1720,119 @@
     </row>
     <row r="37" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
-      <c r="B37" s="43" t="s">
+      <c r="B37" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="C37" s="44"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="45"/>
+      <c r="C37" s="70"/>
+      <c r="D37" s="70"/>
+      <c r="E37" s="70"/>
+      <c r="F37" s="71"/>
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C38" s="14" t="s">
+      <c r="C38" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D38" s="14" t="s">
+      <c r="D38" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="19" t="s">
+      <c r="E38" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F38" s="20" t="s">
+      <c r="F38" s="19" t="s">
         <v>12</v>
       </c>
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="25"/>
+      <c r="B39" s="14">
+        <v>1</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E39" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="F39" s="24" t="s">
+        <v>51</v>
+      </c>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="26"/>
+      <c r="B40" s="9">
+        <v>2</v>
+      </c>
+      <c r="C40" s="77" t="s">
+        <v>47</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F40" s="25" t="s">
+        <v>51</v>
+      </c>
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="27"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="26"/>
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="27"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="26"/>
       <c r="G42" s="1"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
-      <c r="B43" s="46" t="s">
+      <c r="B43" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="C43" s="47"/>
-      <c r="D43" s="47"/>
-      <c r="E43" s="47"/>
-      <c r="F43" s="48"/>
+      <c r="C43" s="73"/>
+      <c r="D43" s="73"/>
+      <c r="E43" s="73"/>
+      <c r="F43" s="74"/>
       <c r="G43" s="1"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
-      <c r="B44" s="46"/>
-      <c r="C44" s="47"/>
-      <c r="D44" s="47"/>
-      <c r="E44" s="47"/>
-      <c r="F44" s="48"/>
+      <c r="B44" s="72"/>
+      <c r="C44" s="73"/>
+      <c r="D44" s="73"/>
+      <c r="E44" s="73"/>
+      <c r="F44" s="74"/>
       <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
-      <c r="B45" s="49" t="s">
+      <c r="B45" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="C45" s="50"/>
-      <c r="D45" s="51"/>
-      <c r="E45" s="51"/>
-      <c r="F45" s="52"/>
+      <c r="C45" s="76"/>
+      <c r="D45" s="48"/>
+      <c r="E45" s="48"/>
+      <c r="F45" s="49"/>
       <c r="G45" s="1"/>
     </row>
     <row r="46" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1714,79 +1846,83 @@
     </row>
     <row r="47" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
-      <c r="B47" s="34" t="s">
+      <c r="B47" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="C47" s="35"/>
-      <c r="D47" s="35"/>
-      <c r="E47" s="35"/>
-      <c r="F47" s="36"/>
+      <c r="C47" s="61"/>
+      <c r="D47" s="61"/>
+      <c r="E47" s="61"/>
+      <c r="F47" s="62"/>
       <c r="G47" s="1"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
-      <c r="B48" s="28" t="s">
+      <c r="B48" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C48" s="39"/>
-      <c r="D48" s="39"/>
-      <c r="E48" s="39"/>
-      <c r="F48" s="40"/>
+      <c r="C48" s="65"/>
+      <c r="D48" s="65"/>
+      <c r="E48" s="65"/>
+      <c r="F48" s="66"/>
       <c r="G48" s="1"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
-      <c r="B49" s="29" t="s">
+      <c r="B49" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C49" s="41"/>
-      <c r="D49" s="41"/>
-      <c r="E49" s="41"/>
-      <c r="F49" s="42"/>
+      <c r="C49" s="67"/>
+      <c r="D49" s="67"/>
+      <c r="E49" s="67"/>
+      <c r="F49" s="68"/>
       <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
-      <c r="B50" s="29" t="s">
+      <c r="B50" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C50" s="41"/>
-      <c r="D50" s="41"/>
-      <c r="E50" s="41"/>
-      <c r="F50" s="42"/>
+      <c r="C50" s="67"/>
+      <c r="D50" s="67"/>
+      <c r="E50" s="67"/>
+      <c r="F50" s="68"/>
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
-      <c r="B51" s="30" t="s">
+      <c r="B51" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C51" s="41"/>
-      <c r="D51" s="41"/>
-      <c r="E51" s="41"/>
-      <c r="F51" s="42"/>
+      <c r="C51" s="67" t="s">
+        <v>53</v>
+      </c>
+      <c r="D51" s="67"/>
+      <c r="E51" s="67"/>
+      <c r="F51" s="68"/>
       <c r="G51" s="1"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
-      <c r="B52" s="30" t="s">
+      <c r="B52" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C52" s="37"/>
-      <c r="D52" s="37"/>
-      <c r="E52" s="37"/>
-      <c r="F52" s="38"/>
+      <c r="C52" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="D52" s="50"/>
+      <c r="E52" s="50"/>
+      <c r="F52" s="51"/>
       <c r="G52" s="1"/>
     </row>
     <row r="53" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
-      <c r="B53" s="31" t="s">
+      <c r="B53" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="C53" s="32"/>
-      <c r="D53" s="32"/>
-      <c r="E53" s="32"/>
-      <c r="F53" s="33"/>
+      <c r="C53" s="52"/>
+      <c r="D53" s="52"/>
+      <c r="E53" s="52"/>
+      <c r="F53" s="53"/>
       <c r="G53" s="1"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -1809,31 +1945,6 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:F34"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C16:F16"/>
     <mergeCell ref="C53:F53"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:F5"/>
@@ -1850,6 +1961,31 @@
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="D45:F45"/>
     <mergeCell ref="B18:F18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:F34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
